--- a/biology/Botanique/Gloster_69/Gloster_69.xlsx
+++ b/biology/Botanique/Gloster_69/Gloster_69.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gloster 69 est le nom d'un cultivar de pommier domestique.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rustique, la pomme Gloster est de couleur verte virant au rouge du côté ensoleillé.
 Sa chair fine est juteuse, légèrement acidulée et moyennement sucrée. Elle a un agréable parfum et une peau assez épaisse sous réserve qu'on l'ait bien laissé mûrir suffisamment.
@@ -543,7 +557,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cultivar créé en 1951 par la station de recherche de Jork près de Hambourg en Allemagne, commercialisé pour la première fois en 1969.
 </t>
@@ -574,9 +590,11 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cultivar obtenu par croisement de « Pomme Cloche » (Weisser Winterglockenapfel) avec Richared Delicious [1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cultivar obtenu par croisement de « Pomme Cloche » (Weisser Winterglockenapfel) avec Richared Delicious .
 </t>
         </is>
       </c>
@@ -605,12 +623,14 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Diploïde autofertile[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Diploïde autofertile.
 Groupe de floraison D
 Fleurit tardivement 5 à 6 jours après la Golden delicious.
-S-génotype : S4S19 [3].
+S-génotype : S4S19 .
 Pollinisateurs : Delbardivine®, Braeburn, Winston…
 Spécificité : les fleurs ne s'ouvrent pas toutes en même temps : la fleur centrale du bouquet s'ouvre la première, puis plus tard, les cinq fleurs autour d'elle. Pour la pollinisation croisée, ce cultivar à floraison tardive est intéressant car il fournit du pollen pendant une longue période.</t>
         </is>
@@ -640,7 +660,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La variété Gloster est principalement cultivée en Allemagne, et en particulier dans les vergers du Altes Land où elle est née.
 L'arbre de vigueur forte a un port dressé et apprécie un sol assez profond. Il est très fertile et fructifie rapidement.
